--- a/public/assets/result/Liana_1.xlsx
+++ b/public/assets/result/Liana_1.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC PRO L5V\Downloads\generate-bast\public\assets\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="48">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -157,66 +161,43 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>EKO ANDRIANTO</t>
+    <t>LIANA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -341,67 +322,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="9"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,7 +411,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -434,7 +423,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="485775" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -767,85 +757,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:N43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A6">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.7109375" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" customWidth="true" style="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="true" style="1"/>
-    <col min="3" max="3" width="9" customWidth="true" style="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="true" style="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="true" style="1"/>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="true" style="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="true" style="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="G1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="7"/>
       <c r="G4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" customHeight="1" ht="15.75">
+    </row>
+    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" customHeight="1" ht="15.75">
+    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" customHeight="1" ht="6">
+    <row r="7" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,12 +826,11 @@
         <v>8</v>
       </c>
       <c r="M10" s="12"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" customHeight="1" ht="8.1">
+    </row>
+    <row r="11" spans="2:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:14" customHeight="1" ht="77.45">
+    <row r="12" spans="2:14" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -895,14 +867,14 @@
       </c>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:14" customHeight="1" ht="18.95">
+    <row r="13" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
@@ -916,30 +888,30 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
+        <v>6</v>
+      </c>
+      <c r="J13" s="5">
         <v>9</v>
       </c>
-      <c r="J13" s="5">
-        <v>15</v>
-      </c>
       <c r="K13" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L13" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
       </c>
       <c r="N13"/>
     </row>
-    <row r="14" spans="1:14" customHeight="1" ht="18.95">
+    <row r="14" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
         <v>21</v>
       </c>
@@ -953,30 +925,30 @@
         <v>25</v>
       </c>
       <c r="I14" s="5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J14" s="5">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K14" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L14" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
       </c>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:14" customHeight="1" ht="18.95">
+    <row r="15" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
@@ -990,30 +962,30 @@
         <v>26</v>
       </c>
       <c r="I15" s="5">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J15" s="5">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="K15" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L15" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
       </c>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:14" customHeight="1" ht="18.95">
+    <row r="16" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>4</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
@@ -1027,30 +999,30 @@
         <v>27</v>
       </c>
       <c r="I16" s="5">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J16" s="5">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K16" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="L16" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
       </c>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:14" customHeight="1" ht="18.95">
+    <row r="17" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>5</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1080,14 +1052,14 @@
       </c>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:14" customHeight="1" ht="18.95">
+    <row r="18" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>6</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1101,30 +1073,30 @@
         <v>27</v>
       </c>
       <c r="I18" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J18" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K18" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L18" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
       </c>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:14" customHeight="1" ht="18.95">
+    <row r="19" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>7</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1154,14 +1126,14 @@
       </c>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:14" customHeight="1" ht="18.95">
+    <row r="20" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>8</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1175,30 +1147,30 @@
         <v>34</v>
       </c>
       <c r="I20" s="5">
+        <v>3</v>
+      </c>
+      <c r="J20" s="5">
         <v>9</v>
       </c>
-      <c r="J20" s="5">
-        <v>22</v>
-      </c>
       <c r="K20" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L20" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M20" s="5">
         <v>2</v>
       </c>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" customHeight="1" ht="18.95">
+    <row r="21" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>9</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1212,30 +1184,30 @@
         <v>30</v>
       </c>
       <c r="I21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L21" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
       </c>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" customHeight="1" ht="18.95">
+    <row r="22" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>10</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
@@ -1249,30 +1221,30 @@
         <v>26</v>
       </c>
       <c r="I22" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J22" s="5">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K22" s="5">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L22" s="5">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M22" s="5">
         <v>2</v>
       </c>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:14" customHeight="1" ht="18.95">
+    <row r="23" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>11</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
@@ -1286,30 +1258,30 @@
         <v>27</v>
       </c>
       <c r="I23" s="5">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J23" s="5">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K23" s="5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L23" s="5">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="M23" s="5">
         <v>2</v>
       </c>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:14" customHeight="1" ht="18.95">
+    <row r="24" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>12</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="5" t="s">
         <v>32</v>
       </c>
@@ -1323,30 +1295,30 @@
         <v>34</v>
       </c>
       <c r="I24" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K24" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L24" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M24" s="5">
         <v>2</v>
       </c>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:14" customHeight="1" ht="18.95">
+    <row r="25" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>13</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
@@ -1360,30 +1332,30 @@
         <v>30</v>
       </c>
       <c r="I25" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J25" s="5">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K25" s="5">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L25" s="5">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M25" s="5">
         <v>2</v>
       </c>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:14" customHeight="1" ht="18.95">
+    <row r="26" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>14</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="5" t="s">
         <v>32</v>
       </c>
@@ -1397,30 +1369,30 @@
         <v>25</v>
       </c>
       <c r="I26" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="K26" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L26" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M26" s="5">
         <v>2</v>
       </c>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:14" customHeight="1" ht="18.95">
+    <row r="27" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>15</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
@@ -1434,30 +1406,30 @@
         <v>26</v>
       </c>
       <c r="I27" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L27" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
       </c>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:14" customHeight="1" ht="18.95">
+    <row r="28" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>16</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1471,30 +1443,30 @@
         <v>27</v>
       </c>
       <c r="I28" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J28" s="5">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K28" s="5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L28" s="5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="M28" s="5">
         <v>2</v>
       </c>
       <c r="N28"/>
     </row>
-    <row r="29" spans="1:14" customHeight="1" ht="18.95">
+    <row r="29" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>17</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="5" t="s">
         <v>32</v>
       </c>
@@ -1508,30 +1480,30 @@
         <v>24</v>
       </c>
       <c r="I29" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J29" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K29" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L29" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M29" s="5">
         <v>2</v>
       </c>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:14" customHeight="1" ht="18.95">
+    <row r="30" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>18</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="5" t="s">
         <v>32</v>
       </c>
@@ -1545,30 +1517,30 @@
         <v>26</v>
       </c>
       <c r="I30" s="5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J30" s="5">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K30" s="5">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L30" s="5">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M30" s="5">
         <v>2</v>
       </c>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:14" customHeight="1" ht="18.95">
+    <row r="31" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>19</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1598,14 +1570,14 @@
       </c>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:14" customHeight="1" ht="18.95">
+    <row r="32" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>20</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1619,30 +1591,30 @@
         <v>34</v>
       </c>
       <c r="I32" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J32" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K32" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L32" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M32" s="5">
         <v>2</v>
       </c>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" customHeight="1" ht="18.95">
+    <row r="33" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>21</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="5" t="s">
         <v>32</v>
       </c>
@@ -1656,30 +1628,30 @@
         <v>30</v>
       </c>
       <c r="I33" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J33" s="5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K33" s="5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L33" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M33" s="5">
         <v>2</v>
       </c>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" customHeight="1" ht="18.95">
+    <row r="34" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>22</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="5" t="s">
         <v>32</v>
       </c>
@@ -1693,26 +1665,26 @@
         <v>26</v>
       </c>
       <c r="I34" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J34" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K34" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L34" s="5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M34" s="5">
         <v>2</v>
       </c>
       <c r="N34"/>
     </row>
-    <row r="35" spans="1:14" customHeight="1" ht="18.95">
+    <row r="35" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -1724,16 +1696,15 @@
       <c r="M35" s="13"/>
       <c r="N35"/>
     </row>
-    <row r="36" spans="1:14" customHeight="1" ht="6">
+    <row r="36" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N36"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E38" s="9" t="s">
         <v>42</v>
       </c>
@@ -1741,9 +1712,8 @@
         <v>43</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D39" s="11" t="s">
         <v>44</v>
       </c>
@@ -1751,37 +1721,39 @@
         <v>45</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="K40" s="4" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" customHeight="1" ht="9">
+    </row>
+    <row r="41" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="N41"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="L43" s="4"/>
-      <c r="N43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="24">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C35:D35"/>
@@ -1798,27 +1770,9 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.16" right="0.12" top="0.2" bottom="0.12" header="0.12" footer="0.18"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="85" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="0"/>
 </worksheet>
 </file>